--- a/biology/Zoologie/Cichlidé_émeraude/Cichlidé_émeraude.xlsx
+++ b/biology/Zoologie/Cichlidé_émeraude/Cichlidé_émeraude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cichlid%C3%A9_%C3%A9meraude</t>
+          <t>Cichlidé_émeraude</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypselecara temporalis
 Le cichlidé émeraude (Hypselecara temporalis) est une espèce de poisson appartenant à la famille des cichlidés originaire d'Amérique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cichlid%C3%A9_%C3%A9meraude</t>
+          <t>Cichlidé_émeraude</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cichlidé émeraude est plutôt trapu de couleur rouge avec des reflets verts. À l'âge adulte il peut atteindre 25 cm.
 Les jeunes possèdent un patron de coloration assez terne, peu attrayant. C'est en prenant de l'âge qu'ils s'acquièrent leur coloration rougeâtre caractéristique.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cichlid%C3%A9_%C3%A9meraude</t>
+          <t>Cichlidé_émeraude</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cichlidé émeraude est  un cichlidé sud-américain bien connu des cychlidophiles. Son aire de distribution s'étend du Pérou jusqu'en Guyane, en passant par le Brésil.
 La coloration générale est brune rougeâtre en fonction de l'humeur et de l'éclairage.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cichlid%C3%A9_%C3%A9meraude</t>
+          <t>Cichlidé_émeraude</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Maintenance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cichlidé émeraude est un poisson calme, paisible et très sociable;
 la cohabitation avec d'autres espèces sud-américaines de taille similaire ne pose pas de problèmes particuliers.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cichlid%C3%A9_%C3%A9meraude</t>
+          <t>Cichlidé_émeraude</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces poissons mangent de tout, l'essentiel étant que les mets proposés soient adaptés ; un apport frais ou congelé est apprécié (crevettes, krill, etc.)
 </t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cichlid%C3%A9_%C3%A9meraude</t>
+          <t>Cichlidé_émeraude</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Bac type</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuve de 200 × 60 × 60 cm, soit 720 litres de volume brut.
 Filtre à décantation externe d'un débit de 2 500 l/h.
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cichlid%C3%A9_%C3%A9meraude</t>
+          <t>Cichlidé_émeraude</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,7 +701,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La ponte se déroule sur substrat découvert vertical/ voir oblique, car dans leur milieu naturel il y a trop de  sédiments  qui vont couvrir les œufs s'ils pondent sur une matière horizontal. Après un nettoyage minutieux de la surface choisie, la femelle dépose plusieurs centaines d'œufs, immédiatement fécondés par le mâle.
 Lorsque le stade de nage libre est atteint (6 jours après l'éclosion), les alevins se déplacent en groupe compact.
@@ -695,7 +719,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cichlid%C3%A9_%C3%A9meraude</t>
+          <t>Cichlidé_émeraude</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -713,7 +737,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypselecara temporalis est originaire de la partie supérieure du bassin amazonien.
 Sur les autres projets Wikimedia :
